--- a/hardware/coilcube/rev_c/coilcube_bom.xlsx
+++ b/hardware/coilcube/rev_c/coilcube_bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" tabRatio="108"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>Qty</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>428-3210-ND</t>
+  </si>
+  <si>
+    <t>Replacement: 399-8410-1-ND</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -708,7 +711,7 @@
     <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -912,6 +915,9 @@
       <c r="H8" t="s">
         <v>46</v>
       </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
@@ -1152,7 +1158,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.79" right="0.79" top="1.05" bottom="1.05" header="0.79" footer="0.79"/>
-  <pageSetup scale="65" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="62" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
